--- a/biology/Microbiologie/Alteromonas/Alteromonas.xlsx
+++ b/biology/Microbiologie/Alteromonas/Alteromonas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Alteromonas sont un genre de bactéries marines de la famille Alteromonadaceae. Ce sont des bactéries à Gram négatif, de l'embranchement des Pseudomonadota. L'espèce type de ce genre est Alteromonas macleodii.
 </t>
@@ -513,12 +525,87 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Étymologie
-L'étymologie de ce genre est la suivante : Al.te.ro.mo.nas L. pron. alter -tera -terum, autre, différent; L. fem. n. monas, une monade, unité; N.L. fem. n. Alteromonas, une autre Monas [2].
-Historique
-Le genre Alteromonas a été décrit en 1972 sur la base de ses caractéristiques biochimiques et de sa composition en bases nucléotidiques GC avec un pourcentage molaire de 43 à 48%[1]. La famille Alteromonadaceae a été décrite en 2001 pour regrouper dans une même famille les genres de Protéobactéries marines Alteromonas, Pseudoalteromonas, Idiomarina et Colwellia sur la base de leurs homologies de séquences ARNr 16S[3], ces espèces forment un clade monophylétique[3]. En 2005, lors de la description de l'ordre Alteromonadales dans le Bergey's Manual, la famille Alteromonadaceae y est intégrée comme unique famille de cet ordre[4] et la même année dans la liste des nouveaux noms n°106 séparée en plusieurs familles[5].
-Liste des espèces
-Selon la LPSN  (11 septembre 2022)[6], le genre Alteromonas compte 35 espèces publiées de manière valide et 6 à 7 espèces publiées de manière non valide.
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de ce genre est la suivante : Al.te.ro.mo.nas L. pron. alter -tera -terum, autre, différent; L. fem. n. monas, une monade, unité; N.L. fem. n. Alteromonas, une autre Monas .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Alteromonas</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alteromonas</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Alteromonas a été décrit en 1972 sur la base de ses caractéristiques biochimiques et de sa composition en bases nucléotidiques GC avec un pourcentage molaire de 43 à 48%. La famille Alteromonadaceae a été décrite en 2001 pour regrouper dans une même famille les genres de Protéobactéries marines Alteromonas, Pseudoalteromonas, Idiomarina et Colwellia sur la base de leurs homologies de séquences ARNr 16S, ces espèces forment un clade monophylétique. En 2005, lors de la description de l'ordre Alteromonadales dans le Bergey's Manual, la famille Alteromonadaceae y est intégrée comme unique famille de cet ordre et la même année dans la liste des nouveaux noms n°106 séparée en plusieurs familles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alteromonas</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alteromonas</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (11 septembre 2022), le genre Alteromonas compte 35 espèces publiées de manière valide et 6 à 7 espèces publiées de manière non valide.
 Espèces publiées de manière valide
 A. aestuariivivens
 A. alba
@@ -567,33 +654,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Alteromonas</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Microbiologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alteromonas</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bactéries du genre Alteromonas sont des bactéries marines[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bactéries du genre Alteromonas sont des bactéries marines.
 </t>
         </is>
       </c>
